--- a/Results/I 5x.xlsx
+++ b/Results/I 5x.xlsx
@@ -106,7 +106,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$1:$M$1</f>
+              <f>'I 5x 8 bits S0'!$B$1:$L$1</f>
             </numRef>
           </val>
         </ser>
@@ -133,7 +133,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$2:$M$2</f>
+              <f>'I 5x 8 bits S0'!$B$2:$L$2</f>
             </numRef>
           </val>
         </ser>
@@ -160,7 +160,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$3:$M$3</f>
+              <f>'I 5x 8 bits S0'!$B$3:$L$3</f>
             </numRef>
           </val>
         </ser>
@@ -187,7 +187,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$4:$M$4</f>
+              <f>'I 5x 8 bits S0'!$B$4:$L$4</f>
             </numRef>
           </val>
         </ser>
@@ -214,7 +214,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$5:$M$5</f>
+              <f>'I 5x 8 bits S0'!$B$5:$L$5</f>
             </numRef>
           </val>
         </ser>
@@ -241,7 +241,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$6:$M$6</f>
+              <f>'I 5x 8 bits S0'!$B$6:$L$6</f>
             </numRef>
           </val>
         </ser>
@@ -268,7 +268,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$7:$M$7</f>
+              <f>'I 5x 8 bits S0'!$B$7:$L$7</f>
             </numRef>
           </val>
         </ser>
@@ -295,7 +295,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$8:$M$8</f>
+              <f>'I 5x 8 bits S0'!$B$8:$L$8</f>
             </numRef>
           </val>
         </ser>
@@ -322,7 +322,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$9:$M$9</f>
+              <f>'I 5x 8 bits S0'!$B$9:$L$9</f>
             </numRef>
           </val>
         </ser>
@@ -349,7 +349,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$10:$M$10</f>
+              <f>'I 5x 8 bits S0'!$B$10:$L$10</f>
             </numRef>
           </val>
         </ser>
@@ -376,7 +376,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$11:$M$11</f>
+              <f>'I 5x 8 bits S0'!$B$11:$L$11</f>
             </numRef>
           </val>
         </ser>
@@ -403,7 +403,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$12:$M$12</f>
+              <f>'I 5x 8 bits S0'!$B$12:$L$12</f>
             </numRef>
           </val>
         </ser>
@@ -430,7 +430,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$13:$M$13</f>
+              <f>'I 5x 8 bits S0'!$B$13:$L$13</f>
             </numRef>
           </val>
         </ser>
@@ -457,7 +457,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$14:$M$14</f>
+              <f>'I 5x 8 bits S0'!$B$14:$L$14</f>
             </numRef>
           </val>
         </ser>
@@ -484,7 +484,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S0'!$B$15:$M$15</f>
+              <f>'I 5x 8 bits S0'!$B$15:$L$15</f>
             </numRef>
           </val>
         </ser>
@@ -552,7 +552,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$1:$N$1</f>
+              <f>'I 5x 8 bits S9'!$B$1:$M$1</f>
             </numRef>
           </val>
         </ser>
@@ -579,7 +579,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$2:$N$2</f>
+              <f>'I 5x 8 bits S9'!$B$2:$M$2</f>
             </numRef>
           </val>
         </ser>
@@ -606,7 +606,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$3:$N$3</f>
+              <f>'I 5x 8 bits S9'!$B$3:$M$3</f>
             </numRef>
           </val>
         </ser>
@@ -633,7 +633,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$4:$N$4</f>
+              <f>'I 5x 8 bits S9'!$B$4:$M$4</f>
             </numRef>
           </val>
         </ser>
@@ -660,7 +660,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$5:$N$5</f>
+              <f>'I 5x 8 bits S9'!$B$5:$M$5</f>
             </numRef>
           </val>
         </ser>
@@ -687,7 +687,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$6:$N$6</f>
+              <f>'I 5x 8 bits S9'!$B$6:$M$6</f>
             </numRef>
           </val>
         </ser>
@@ -714,7 +714,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$7:$N$7</f>
+              <f>'I 5x 8 bits S9'!$B$7:$M$7</f>
             </numRef>
           </val>
         </ser>
@@ -741,7 +741,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$8:$N$8</f>
+              <f>'I 5x 8 bits S9'!$B$8:$M$8</f>
             </numRef>
           </val>
         </ser>
@@ -768,7 +768,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$9:$N$9</f>
+              <f>'I 5x 8 bits S9'!$B$9:$M$9</f>
             </numRef>
           </val>
         </ser>
@@ -795,7 +795,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$10:$N$10</f>
+              <f>'I 5x 8 bits S9'!$B$10:$M$10</f>
             </numRef>
           </val>
         </ser>
@@ -822,7 +822,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$11:$N$11</f>
+              <f>'I 5x 8 bits S9'!$B$11:$M$11</f>
             </numRef>
           </val>
         </ser>
@@ -849,7 +849,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$12:$N$12</f>
+              <f>'I 5x 8 bits S9'!$B$12:$M$12</f>
             </numRef>
           </val>
         </ser>
@@ -876,7 +876,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$13:$N$13</f>
+              <f>'I 5x 8 bits S9'!$B$13:$M$13</f>
             </numRef>
           </val>
         </ser>
@@ -903,7 +903,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$14:$N$14</f>
+              <f>'I 5x 8 bits S9'!$B$14:$M$14</f>
             </numRef>
           </val>
         </ser>
@@ -930,7 +930,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S9'!$B$15:$N$15</f>
+              <f>'I 5x 8 bits S9'!$B$15:$M$15</f>
             </numRef>
           </val>
         </ser>
@@ -998,7 +998,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$1:$M$1</f>
+              <f>'I 5x 16 bits S0'!$B$1:$L$1</f>
             </numRef>
           </val>
         </ser>
@@ -1025,7 +1025,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$2:$M$2</f>
+              <f>'I 5x 16 bits S0'!$B$2:$L$2</f>
             </numRef>
           </val>
         </ser>
@@ -1052,7 +1052,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$3:$M$3</f>
+              <f>'I 5x 16 bits S0'!$B$3:$L$3</f>
             </numRef>
           </val>
         </ser>
@@ -1079,7 +1079,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$4:$M$4</f>
+              <f>'I 5x 16 bits S0'!$B$4:$L$4</f>
             </numRef>
           </val>
         </ser>
@@ -1106,7 +1106,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$5:$M$5</f>
+              <f>'I 5x 16 bits S0'!$B$5:$L$5</f>
             </numRef>
           </val>
         </ser>
@@ -1133,7 +1133,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$6:$M$6</f>
+              <f>'I 5x 16 bits S0'!$B$6:$L$6</f>
             </numRef>
           </val>
         </ser>
@@ -1160,7 +1160,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$7:$M$7</f>
+              <f>'I 5x 16 bits S0'!$B$7:$L$7</f>
             </numRef>
           </val>
         </ser>
@@ -1187,7 +1187,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$8:$M$8</f>
+              <f>'I 5x 16 bits S0'!$B$8:$L$8</f>
             </numRef>
           </val>
         </ser>
@@ -1214,7 +1214,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$9:$M$9</f>
+              <f>'I 5x 16 bits S0'!$B$9:$L$9</f>
             </numRef>
           </val>
         </ser>
@@ -1241,7 +1241,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$10:$M$10</f>
+              <f>'I 5x 16 bits S0'!$B$10:$L$10</f>
             </numRef>
           </val>
         </ser>
@@ -1268,7 +1268,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$11:$M$11</f>
+              <f>'I 5x 16 bits S0'!$B$11:$L$11</f>
             </numRef>
           </val>
         </ser>
@@ -1295,7 +1295,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$12:$M$12</f>
+              <f>'I 5x 16 bits S0'!$B$12:$L$12</f>
             </numRef>
           </val>
         </ser>
@@ -1322,7 +1322,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$13:$M$13</f>
+              <f>'I 5x 16 bits S0'!$B$13:$L$13</f>
             </numRef>
           </val>
         </ser>
@@ -1349,7 +1349,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$14:$M$14</f>
+              <f>'I 5x 16 bits S0'!$B$14:$L$14</f>
             </numRef>
           </val>
         </ser>
@@ -1376,7 +1376,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S0'!$B$15:$M$15</f>
+              <f>'I 5x 16 bits S0'!$B$15:$L$15</f>
             </numRef>
           </val>
         </ser>
@@ -1444,7 +1444,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$1:$O$1</f>
+              <f>'I 5x 16 bits S1'!$B$1:$N$1</f>
             </numRef>
           </val>
         </ser>
@@ -1471,7 +1471,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$2:$O$2</f>
+              <f>'I 5x 16 bits S1'!$B$2:$N$2</f>
             </numRef>
           </val>
         </ser>
@@ -1498,7 +1498,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$3:$O$3</f>
+              <f>'I 5x 16 bits S1'!$B$3:$N$3</f>
             </numRef>
           </val>
         </ser>
@@ -1525,7 +1525,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$4:$O$4</f>
+              <f>'I 5x 16 bits S1'!$B$4:$N$4</f>
             </numRef>
           </val>
         </ser>
@@ -1552,7 +1552,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$5:$O$5</f>
+              <f>'I 5x 16 bits S1'!$B$5:$N$5</f>
             </numRef>
           </val>
         </ser>
@@ -1579,7 +1579,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$6:$O$6</f>
+              <f>'I 5x 16 bits S1'!$B$6:$N$6</f>
             </numRef>
           </val>
         </ser>
@@ -1606,7 +1606,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$7:$O$7</f>
+              <f>'I 5x 16 bits S1'!$B$7:$N$7</f>
             </numRef>
           </val>
         </ser>
@@ -1633,7 +1633,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$8:$O$8</f>
+              <f>'I 5x 16 bits S1'!$B$8:$N$8</f>
             </numRef>
           </val>
         </ser>
@@ -1660,7 +1660,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$9:$O$9</f>
+              <f>'I 5x 16 bits S1'!$B$9:$N$9</f>
             </numRef>
           </val>
         </ser>
@@ -1687,7 +1687,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$10:$O$10</f>
+              <f>'I 5x 16 bits S1'!$B$10:$N$10</f>
             </numRef>
           </val>
         </ser>
@@ -1714,7 +1714,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$11:$O$11</f>
+              <f>'I 5x 16 bits S1'!$B$11:$N$11</f>
             </numRef>
           </val>
         </ser>
@@ -1741,7 +1741,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$12:$O$12</f>
+              <f>'I 5x 16 bits S1'!$B$12:$N$12</f>
             </numRef>
           </val>
         </ser>
@@ -1768,7 +1768,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$13:$O$13</f>
+              <f>'I 5x 16 bits S1'!$B$13:$N$13</f>
             </numRef>
           </val>
         </ser>
@@ -1795,7 +1795,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$14:$O$14</f>
+              <f>'I 5x 16 bits S1'!$B$14:$N$14</f>
             </numRef>
           </val>
         </ser>
@@ -1822,7 +1822,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S1'!$B$15:$O$15</f>
+              <f>'I 5x 16 bits S1'!$B$15:$N$15</f>
             </numRef>
           </val>
         </ser>
@@ -1890,7 +1890,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$1:$N$1</f>
+              <f>'I 5x 16 bits S2'!$B$1:$M$1</f>
             </numRef>
           </val>
         </ser>
@@ -1917,7 +1917,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$2:$N$2</f>
+              <f>'I 5x 16 bits S2'!$B$2:$M$2</f>
             </numRef>
           </val>
         </ser>
@@ -1944,7 +1944,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$3:$N$3</f>
+              <f>'I 5x 16 bits S2'!$B$3:$M$3</f>
             </numRef>
           </val>
         </ser>
@@ -1971,7 +1971,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$4:$N$4</f>
+              <f>'I 5x 16 bits S2'!$B$4:$M$4</f>
             </numRef>
           </val>
         </ser>
@@ -1998,7 +1998,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$5:$N$5</f>
+              <f>'I 5x 16 bits S2'!$B$5:$M$5</f>
             </numRef>
           </val>
         </ser>
@@ -2025,7 +2025,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$6:$N$6</f>
+              <f>'I 5x 16 bits S2'!$B$6:$M$6</f>
             </numRef>
           </val>
         </ser>
@@ -2052,7 +2052,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$7:$N$7</f>
+              <f>'I 5x 16 bits S2'!$B$7:$M$7</f>
             </numRef>
           </val>
         </ser>
@@ -2079,7 +2079,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$8:$N$8</f>
+              <f>'I 5x 16 bits S2'!$B$8:$M$8</f>
             </numRef>
           </val>
         </ser>
@@ -2106,7 +2106,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$9:$N$9</f>
+              <f>'I 5x 16 bits S2'!$B$9:$M$9</f>
             </numRef>
           </val>
         </ser>
@@ -2133,7 +2133,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$10:$N$10</f>
+              <f>'I 5x 16 bits S2'!$B$10:$M$10</f>
             </numRef>
           </val>
         </ser>
@@ -2160,7 +2160,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$11:$N$11</f>
+              <f>'I 5x 16 bits S2'!$B$11:$M$11</f>
             </numRef>
           </val>
         </ser>
@@ -2187,7 +2187,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$12:$N$12</f>
+              <f>'I 5x 16 bits S2'!$B$12:$M$12</f>
             </numRef>
           </val>
         </ser>
@@ -2214,7 +2214,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$13:$N$13</f>
+              <f>'I 5x 16 bits S2'!$B$13:$M$13</f>
             </numRef>
           </val>
         </ser>
@@ -2241,7 +2241,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$14:$N$14</f>
+              <f>'I 5x 16 bits S2'!$B$14:$M$14</f>
             </numRef>
           </val>
         </ser>
@@ -2268,7 +2268,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S2'!$B$15:$N$15</f>
+              <f>'I 5x 16 bits S2'!$B$15:$M$15</f>
             </numRef>
           </val>
         </ser>
@@ -2336,7 +2336,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$1:$N$1</f>
+              <f>'I 5x 16 bits S3'!$B$1:$M$1</f>
             </numRef>
           </val>
         </ser>
@@ -2363,7 +2363,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$2:$N$2</f>
+              <f>'I 5x 16 bits S3'!$B$2:$M$2</f>
             </numRef>
           </val>
         </ser>
@@ -2390,7 +2390,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$3:$N$3</f>
+              <f>'I 5x 16 bits S3'!$B$3:$M$3</f>
             </numRef>
           </val>
         </ser>
@@ -2417,7 +2417,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$4:$N$4</f>
+              <f>'I 5x 16 bits S3'!$B$4:$M$4</f>
             </numRef>
           </val>
         </ser>
@@ -2444,7 +2444,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$5:$N$5</f>
+              <f>'I 5x 16 bits S3'!$B$5:$M$5</f>
             </numRef>
           </val>
         </ser>
@@ -2471,7 +2471,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$6:$N$6</f>
+              <f>'I 5x 16 bits S3'!$B$6:$M$6</f>
             </numRef>
           </val>
         </ser>
@@ -2498,7 +2498,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$7:$N$7</f>
+              <f>'I 5x 16 bits S3'!$B$7:$M$7</f>
             </numRef>
           </val>
         </ser>
@@ -2525,7 +2525,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$8:$N$8</f>
+              <f>'I 5x 16 bits S3'!$B$8:$M$8</f>
             </numRef>
           </val>
         </ser>
@@ -2552,7 +2552,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$9:$N$9</f>
+              <f>'I 5x 16 bits S3'!$B$9:$M$9</f>
             </numRef>
           </val>
         </ser>
@@ -2579,7 +2579,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$10:$N$10</f>
+              <f>'I 5x 16 bits S3'!$B$10:$M$10</f>
             </numRef>
           </val>
         </ser>
@@ -2606,7 +2606,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$11:$N$11</f>
+              <f>'I 5x 16 bits S3'!$B$11:$M$11</f>
             </numRef>
           </val>
         </ser>
@@ -2633,7 +2633,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$12:$N$12</f>
+              <f>'I 5x 16 bits S3'!$B$12:$M$12</f>
             </numRef>
           </val>
         </ser>
@@ -2660,7 +2660,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$13:$N$13</f>
+              <f>'I 5x 16 bits S3'!$B$13:$M$13</f>
             </numRef>
           </val>
         </ser>
@@ -2687,7 +2687,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$14:$N$14</f>
+              <f>'I 5x 16 bits S3'!$B$14:$M$14</f>
             </numRef>
           </val>
         </ser>
@@ -2714,7 +2714,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S3'!$B$15:$N$15</f>
+              <f>'I 5x 16 bits S3'!$B$15:$M$15</f>
             </numRef>
           </val>
         </ser>
@@ -2782,7 +2782,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$1:$R$1</f>
+              <f>'I 5x 16 bits S4'!$B$1:$Q$1</f>
             </numRef>
           </val>
         </ser>
@@ -2809,7 +2809,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$2:$R$2</f>
+              <f>'I 5x 16 bits S4'!$B$2:$Q$2</f>
             </numRef>
           </val>
         </ser>
@@ -2836,7 +2836,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$3:$R$3</f>
+              <f>'I 5x 16 bits S4'!$B$3:$Q$3</f>
             </numRef>
           </val>
         </ser>
@@ -2863,7 +2863,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$4:$R$4</f>
+              <f>'I 5x 16 bits S4'!$B$4:$Q$4</f>
             </numRef>
           </val>
         </ser>
@@ -2890,7 +2890,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$5:$R$5</f>
+              <f>'I 5x 16 bits S4'!$B$5:$Q$5</f>
             </numRef>
           </val>
         </ser>
@@ -2917,7 +2917,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$6:$R$6</f>
+              <f>'I 5x 16 bits S4'!$B$6:$Q$6</f>
             </numRef>
           </val>
         </ser>
@@ -2944,7 +2944,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$7:$R$7</f>
+              <f>'I 5x 16 bits S4'!$B$7:$Q$7</f>
             </numRef>
           </val>
         </ser>
@@ -2971,7 +2971,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$8:$R$8</f>
+              <f>'I 5x 16 bits S4'!$B$8:$Q$8</f>
             </numRef>
           </val>
         </ser>
@@ -2998,7 +2998,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$9:$R$9</f>
+              <f>'I 5x 16 bits S4'!$B$9:$Q$9</f>
             </numRef>
           </val>
         </ser>
@@ -3025,7 +3025,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$10:$R$10</f>
+              <f>'I 5x 16 bits S4'!$B$10:$Q$10</f>
             </numRef>
           </val>
         </ser>
@@ -3052,7 +3052,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$11:$R$11</f>
+              <f>'I 5x 16 bits S4'!$B$11:$Q$11</f>
             </numRef>
           </val>
         </ser>
@@ -3079,7 +3079,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$12:$R$12</f>
+              <f>'I 5x 16 bits S4'!$B$12:$Q$12</f>
             </numRef>
           </val>
         </ser>
@@ -3106,7 +3106,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$13:$R$13</f>
+              <f>'I 5x 16 bits S4'!$B$13:$Q$13</f>
             </numRef>
           </val>
         </ser>
@@ -3133,7 +3133,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$14:$R$14</f>
+              <f>'I 5x 16 bits S4'!$B$14:$Q$14</f>
             </numRef>
           </val>
         </ser>
@@ -3160,7 +3160,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S4'!$B$15:$R$15</f>
+              <f>'I 5x 16 bits S4'!$B$15:$Q$15</f>
             </numRef>
           </val>
         </ser>
@@ -3228,7 +3228,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$1:$Q$1</f>
+              <f>'I 5x 16 bits S5'!$B$1:$P$1</f>
             </numRef>
           </val>
         </ser>
@@ -3255,7 +3255,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$2:$Q$2</f>
+              <f>'I 5x 16 bits S5'!$B$2:$P$2</f>
             </numRef>
           </val>
         </ser>
@@ -3282,7 +3282,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$3:$Q$3</f>
+              <f>'I 5x 16 bits S5'!$B$3:$P$3</f>
             </numRef>
           </val>
         </ser>
@@ -3309,7 +3309,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$4:$Q$4</f>
+              <f>'I 5x 16 bits S5'!$B$4:$P$4</f>
             </numRef>
           </val>
         </ser>
@@ -3336,7 +3336,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$5:$Q$5</f>
+              <f>'I 5x 16 bits S5'!$B$5:$P$5</f>
             </numRef>
           </val>
         </ser>
@@ -3363,7 +3363,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$6:$Q$6</f>
+              <f>'I 5x 16 bits S5'!$B$6:$P$6</f>
             </numRef>
           </val>
         </ser>
@@ -3390,7 +3390,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$7:$Q$7</f>
+              <f>'I 5x 16 bits S5'!$B$7:$P$7</f>
             </numRef>
           </val>
         </ser>
@@ -3417,7 +3417,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$8:$Q$8</f>
+              <f>'I 5x 16 bits S5'!$B$8:$P$8</f>
             </numRef>
           </val>
         </ser>
@@ -3444,7 +3444,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$9:$Q$9</f>
+              <f>'I 5x 16 bits S5'!$B$9:$P$9</f>
             </numRef>
           </val>
         </ser>
@@ -3471,7 +3471,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$10:$Q$10</f>
+              <f>'I 5x 16 bits S5'!$B$10:$P$10</f>
             </numRef>
           </val>
         </ser>
@@ -3498,7 +3498,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$11:$Q$11</f>
+              <f>'I 5x 16 bits S5'!$B$11:$P$11</f>
             </numRef>
           </val>
         </ser>
@@ -3525,7 +3525,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$12:$Q$12</f>
+              <f>'I 5x 16 bits S5'!$B$12:$P$12</f>
             </numRef>
           </val>
         </ser>
@@ -3552,7 +3552,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$13:$Q$13</f>
+              <f>'I 5x 16 bits S5'!$B$13:$P$13</f>
             </numRef>
           </val>
         </ser>
@@ -3579,7 +3579,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$14:$Q$14</f>
+              <f>'I 5x 16 bits S5'!$B$14:$P$14</f>
             </numRef>
           </val>
         </ser>
@@ -3606,7 +3606,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S5'!$B$15:$Q$15</f>
+              <f>'I 5x 16 bits S5'!$B$15:$P$15</f>
             </numRef>
           </val>
         </ser>
@@ -3674,7 +3674,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$1:$P$1</f>
+              <f>'I 5x 16 bits S6'!$B$1:$O$1</f>
             </numRef>
           </val>
         </ser>
@@ -3701,7 +3701,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$2:$P$2</f>
+              <f>'I 5x 16 bits S6'!$B$2:$O$2</f>
             </numRef>
           </val>
         </ser>
@@ -3728,7 +3728,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$3:$P$3</f>
+              <f>'I 5x 16 bits S6'!$B$3:$O$3</f>
             </numRef>
           </val>
         </ser>
@@ -3755,7 +3755,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$4:$P$4</f>
+              <f>'I 5x 16 bits S6'!$B$4:$O$4</f>
             </numRef>
           </val>
         </ser>
@@ -3782,7 +3782,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$5:$P$5</f>
+              <f>'I 5x 16 bits S6'!$B$5:$O$5</f>
             </numRef>
           </val>
         </ser>
@@ -3809,7 +3809,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$6:$P$6</f>
+              <f>'I 5x 16 bits S6'!$B$6:$O$6</f>
             </numRef>
           </val>
         </ser>
@@ -3836,7 +3836,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$7:$P$7</f>
+              <f>'I 5x 16 bits S6'!$B$7:$O$7</f>
             </numRef>
           </val>
         </ser>
@@ -3863,7 +3863,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$8:$P$8</f>
+              <f>'I 5x 16 bits S6'!$B$8:$O$8</f>
             </numRef>
           </val>
         </ser>
@@ -3890,7 +3890,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$9:$P$9</f>
+              <f>'I 5x 16 bits S6'!$B$9:$O$9</f>
             </numRef>
           </val>
         </ser>
@@ -3917,7 +3917,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$10:$P$10</f>
+              <f>'I 5x 16 bits S6'!$B$10:$O$10</f>
             </numRef>
           </val>
         </ser>
@@ -3944,7 +3944,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$11:$P$11</f>
+              <f>'I 5x 16 bits S6'!$B$11:$O$11</f>
             </numRef>
           </val>
         </ser>
@@ -3971,7 +3971,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$12:$P$12</f>
+              <f>'I 5x 16 bits S6'!$B$12:$O$12</f>
             </numRef>
           </val>
         </ser>
@@ -3998,7 +3998,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$13:$P$13</f>
+              <f>'I 5x 16 bits S6'!$B$13:$O$13</f>
             </numRef>
           </val>
         </ser>
@@ -4025,7 +4025,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$14:$P$14</f>
+              <f>'I 5x 16 bits S6'!$B$14:$O$14</f>
             </numRef>
           </val>
         </ser>
@@ -4052,7 +4052,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S6'!$B$15:$P$15</f>
+              <f>'I 5x 16 bits S6'!$B$15:$O$15</f>
             </numRef>
           </val>
         </ser>
@@ -4120,7 +4120,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$1:$O$1</f>
+              <f>'I 5x 16 bits S7'!$B$1:$N$1</f>
             </numRef>
           </val>
         </ser>
@@ -4147,7 +4147,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$2:$O$2</f>
+              <f>'I 5x 16 bits S7'!$B$2:$N$2</f>
             </numRef>
           </val>
         </ser>
@@ -4174,7 +4174,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$3:$O$3</f>
+              <f>'I 5x 16 bits S7'!$B$3:$N$3</f>
             </numRef>
           </val>
         </ser>
@@ -4201,7 +4201,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$4:$O$4</f>
+              <f>'I 5x 16 bits S7'!$B$4:$N$4</f>
             </numRef>
           </val>
         </ser>
@@ -4228,7 +4228,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$5:$O$5</f>
+              <f>'I 5x 16 bits S7'!$B$5:$N$5</f>
             </numRef>
           </val>
         </ser>
@@ -4255,7 +4255,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$6:$O$6</f>
+              <f>'I 5x 16 bits S7'!$B$6:$N$6</f>
             </numRef>
           </val>
         </ser>
@@ -4282,7 +4282,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$7:$O$7</f>
+              <f>'I 5x 16 bits S7'!$B$7:$N$7</f>
             </numRef>
           </val>
         </ser>
@@ -4309,7 +4309,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$8:$O$8</f>
+              <f>'I 5x 16 bits S7'!$B$8:$N$8</f>
             </numRef>
           </val>
         </ser>
@@ -4336,7 +4336,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$9:$O$9</f>
+              <f>'I 5x 16 bits S7'!$B$9:$N$9</f>
             </numRef>
           </val>
         </ser>
@@ -4363,7 +4363,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$10:$O$10</f>
+              <f>'I 5x 16 bits S7'!$B$10:$N$10</f>
             </numRef>
           </val>
         </ser>
@@ -4390,7 +4390,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$11:$O$11</f>
+              <f>'I 5x 16 bits S7'!$B$11:$N$11</f>
             </numRef>
           </val>
         </ser>
@@ -4417,7 +4417,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$12:$O$12</f>
+              <f>'I 5x 16 bits S7'!$B$12:$N$12</f>
             </numRef>
           </val>
         </ser>
@@ -4444,7 +4444,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$13:$O$13</f>
+              <f>'I 5x 16 bits S7'!$B$13:$N$13</f>
             </numRef>
           </val>
         </ser>
@@ -4471,7 +4471,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$14:$O$14</f>
+              <f>'I 5x 16 bits S7'!$B$14:$N$14</f>
             </numRef>
           </val>
         </ser>
@@ -4498,7 +4498,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S7'!$B$15:$O$15</f>
+              <f>'I 5x 16 bits S7'!$B$15:$N$15</f>
             </numRef>
           </val>
         </ser>
@@ -4566,7 +4566,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$1:$P$1</f>
+              <f>'I 5x 16 bits S8'!$B$1:$O$1</f>
             </numRef>
           </val>
         </ser>
@@ -4593,7 +4593,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$2:$P$2</f>
+              <f>'I 5x 16 bits S8'!$B$2:$O$2</f>
             </numRef>
           </val>
         </ser>
@@ -4620,7 +4620,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$3:$P$3</f>
+              <f>'I 5x 16 bits S8'!$B$3:$O$3</f>
             </numRef>
           </val>
         </ser>
@@ -4647,7 +4647,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$4:$P$4</f>
+              <f>'I 5x 16 bits S8'!$B$4:$O$4</f>
             </numRef>
           </val>
         </ser>
@@ -4674,7 +4674,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$5:$P$5</f>
+              <f>'I 5x 16 bits S8'!$B$5:$O$5</f>
             </numRef>
           </val>
         </ser>
@@ -4701,7 +4701,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$6:$P$6</f>
+              <f>'I 5x 16 bits S8'!$B$6:$O$6</f>
             </numRef>
           </val>
         </ser>
@@ -4728,7 +4728,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$7:$P$7</f>
+              <f>'I 5x 16 bits S8'!$B$7:$O$7</f>
             </numRef>
           </val>
         </ser>
@@ -4755,7 +4755,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$8:$P$8</f>
+              <f>'I 5x 16 bits S8'!$B$8:$O$8</f>
             </numRef>
           </val>
         </ser>
@@ -4782,7 +4782,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$9:$P$9</f>
+              <f>'I 5x 16 bits S8'!$B$9:$O$9</f>
             </numRef>
           </val>
         </ser>
@@ -4809,7 +4809,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$10:$P$10</f>
+              <f>'I 5x 16 bits S8'!$B$10:$O$10</f>
             </numRef>
           </val>
         </ser>
@@ -4836,7 +4836,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$11:$P$11</f>
+              <f>'I 5x 16 bits S8'!$B$11:$O$11</f>
             </numRef>
           </val>
         </ser>
@@ -4863,7 +4863,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$12:$P$12</f>
+              <f>'I 5x 16 bits S8'!$B$12:$O$12</f>
             </numRef>
           </val>
         </ser>
@@ -4890,7 +4890,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$13:$P$13</f>
+              <f>'I 5x 16 bits S8'!$B$13:$O$13</f>
             </numRef>
           </val>
         </ser>
@@ -4917,7 +4917,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$14:$P$14</f>
+              <f>'I 5x 16 bits S8'!$B$14:$O$14</f>
             </numRef>
           </val>
         </ser>
@@ -4944,7 +4944,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S8'!$B$15:$P$15</f>
+              <f>'I 5x 16 bits S8'!$B$15:$O$15</f>
             </numRef>
           </val>
         </ser>
@@ -5012,7 +5012,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$1:$O$1</f>
+              <f>'I 5x 8 bits S1'!$B$1:$N$1</f>
             </numRef>
           </val>
         </ser>
@@ -5039,7 +5039,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$2:$O$2</f>
+              <f>'I 5x 8 bits S1'!$B$2:$N$2</f>
             </numRef>
           </val>
         </ser>
@@ -5066,7 +5066,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$3:$O$3</f>
+              <f>'I 5x 8 bits S1'!$B$3:$N$3</f>
             </numRef>
           </val>
         </ser>
@@ -5093,7 +5093,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$4:$O$4</f>
+              <f>'I 5x 8 bits S1'!$B$4:$N$4</f>
             </numRef>
           </val>
         </ser>
@@ -5120,7 +5120,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$5:$O$5</f>
+              <f>'I 5x 8 bits S1'!$B$5:$N$5</f>
             </numRef>
           </val>
         </ser>
@@ -5147,7 +5147,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$6:$O$6</f>
+              <f>'I 5x 8 bits S1'!$B$6:$N$6</f>
             </numRef>
           </val>
         </ser>
@@ -5174,7 +5174,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$7:$O$7</f>
+              <f>'I 5x 8 bits S1'!$B$7:$N$7</f>
             </numRef>
           </val>
         </ser>
@@ -5201,7 +5201,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$8:$O$8</f>
+              <f>'I 5x 8 bits S1'!$B$8:$N$8</f>
             </numRef>
           </val>
         </ser>
@@ -5228,7 +5228,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$9:$O$9</f>
+              <f>'I 5x 8 bits S1'!$B$9:$N$9</f>
             </numRef>
           </val>
         </ser>
@@ -5255,7 +5255,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$10:$O$10</f>
+              <f>'I 5x 8 bits S1'!$B$10:$N$10</f>
             </numRef>
           </val>
         </ser>
@@ -5282,7 +5282,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$11:$O$11</f>
+              <f>'I 5x 8 bits S1'!$B$11:$N$11</f>
             </numRef>
           </val>
         </ser>
@@ -5309,7 +5309,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$12:$O$12</f>
+              <f>'I 5x 8 bits S1'!$B$12:$N$12</f>
             </numRef>
           </val>
         </ser>
@@ -5336,7 +5336,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$13:$O$13</f>
+              <f>'I 5x 8 bits S1'!$B$13:$N$13</f>
             </numRef>
           </val>
         </ser>
@@ -5363,7 +5363,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$14:$O$14</f>
+              <f>'I 5x 8 bits S1'!$B$14:$N$14</f>
             </numRef>
           </val>
         </ser>
@@ -5390,7 +5390,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S1'!$B$15:$O$15</f>
+              <f>'I 5x 8 bits S1'!$B$15:$N$15</f>
             </numRef>
           </val>
         </ser>
@@ -5458,7 +5458,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$1:$N$1</f>
+              <f>'I 5x 16 bits S9'!$B$1:$M$1</f>
             </numRef>
           </val>
         </ser>
@@ -5485,7 +5485,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$2:$N$2</f>
+              <f>'I 5x 16 bits S9'!$B$2:$M$2</f>
             </numRef>
           </val>
         </ser>
@@ -5512,7 +5512,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$3:$N$3</f>
+              <f>'I 5x 16 bits S9'!$B$3:$M$3</f>
             </numRef>
           </val>
         </ser>
@@ -5539,7 +5539,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$4:$N$4</f>
+              <f>'I 5x 16 bits S9'!$B$4:$M$4</f>
             </numRef>
           </val>
         </ser>
@@ -5566,7 +5566,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$5:$N$5</f>
+              <f>'I 5x 16 bits S9'!$B$5:$M$5</f>
             </numRef>
           </val>
         </ser>
@@ -5593,7 +5593,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$6:$N$6</f>
+              <f>'I 5x 16 bits S9'!$B$6:$M$6</f>
             </numRef>
           </val>
         </ser>
@@ -5620,7 +5620,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$7:$N$7</f>
+              <f>'I 5x 16 bits S9'!$B$7:$M$7</f>
             </numRef>
           </val>
         </ser>
@@ -5647,7 +5647,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$8:$N$8</f>
+              <f>'I 5x 16 bits S9'!$B$8:$M$8</f>
             </numRef>
           </val>
         </ser>
@@ -5674,7 +5674,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$9:$N$9</f>
+              <f>'I 5x 16 bits S9'!$B$9:$M$9</f>
             </numRef>
           </val>
         </ser>
@@ -5701,7 +5701,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$10:$N$10</f>
+              <f>'I 5x 16 bits S9'!$B$10:$M$10</f>
             </numRef>
           </val>
         </ser>
@@ -5728,7 +5728,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$11:$N$11</f>
+              <f>'I 5x 16 bits S9'!$B$11:$M$11</f>
             </numRef>
           </val>
         </ser>
@@ -5755,7 +5755,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$12:$N$12</f>
+              <f>'I 5x 16 bits S9'!$B$12:$M$12</f>
             </numRef>
           </val>
         </ser>
@@ -5782,7 +5782,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$13:$N$13</f>
+              <f>'I 5x 16 bits S9'!$B$13:$M$13</f>
             </numRef>
           </val>
         </ser>
@@ -5809,7 +5809,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$14:$N$14</f>
+              <f>'I 5x 16 bits S9'!$B$14:$M$14</f>
             </numRef>
           </val>
         </ser>
@@ -5836,7 +5836,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 16 bits S9'!$B$15:$N$15</f>
+              <f>'I 5x 16 bits S9'!$B$15:$M$15</f>
             </numRef>
           </val>
         </ser>
@@ -5904,7 +5904,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$1:$N$1</f>
+              <f>'I 5x 8 bits S2'!$B$1:$M$1</f>
             </numRef>
           </val>
         </ser>
@@ -5931,7 +5931,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$2:$N$2</f>
+              <f>'I 5x 8 bits S2'!$B$2:$M$2</f>
             </numRef>
           </val>
         </ser>
@@ -5958,7 +5958,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$3:$N$3</f>
+              <f>'I 5x 8 bits S2'!$B$3:$M$3</f>
             </numRef>
           </val>
         </ser>
@@ -5985,7 +5985,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$4:$N$4</f>
+              <f>'I 5x 8 bits S2'!$B$4:$M$4</f>
             </numRef>
           </val>
         </ser>
@@ -6012,7 +6012,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$5:$N$5</f>
+              <f>'I 5x 8 bits S2'!$B$5:$M$5</f>
             </numRef>
           </val>
         </ser>
@@ -6039,7 +6039,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$6:$N$6</f>
+              <f>'I 5x 8 bits S2'!$B$6:$M$6</f>
             </numRef>
           </val>
         </ser>
@@ -6066,7 +6066,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$7:$N$7</f>
+              <f>'I 5x 8 bits S2'!$B$7:$M$7</f>
             </numRef>
           </val>
         </ser>
@@ -6093,7 +6093,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$8:$N$8</f>
+              <f>'I 5x 8 bits S2'!$B$8:$M$8</f>
             </numRef>
           </val>
         </ser>
@@ -6120,7 +6120,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$9:$N$9</f>
+              <f>'I 5x 8 bits S2'!$B$9:$M$9</f>
             </numRef>
           </val>
         </ser>
@@ -6147,7 +6147,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$10:$N$10</f>
+              <f>'I 5x 8 bits S2'!$B$10:$M$10</f>
             </numRef>
           </val>
         </ser>
@@ -6174,7 +6174,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$11:$N$11</f>
+              <f>'I 5x 8 bits S2'!$B$11:$M$11</f>
             </numRef>
           </val>
         </ser>
@@ -6201,7 +6201,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$12:$N$12</f>
+              <f>'I 5x 8 bits S2'!$B$12:$M$12</f>
             </numRef>
           </val>
         </ser>
@@ -6228,7 +6228,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$13:$N$13</f>
+              <f>'I 5x 8 bits S2'!$B$13:$M$13</f>
             </numRef>
           </val>
         </ser>
@@ -6255,7 +6255,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$14:$N$14</f>
+              <f>'I 5x 8 bits S2'!$B$14:$M$14</f>
             </numRef>
           </val>
         </ser>
@@ -6282,7 +6282,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S2'!$B$15:$N$15</f>
+              <f>'I 5x 8 bits S2'!$B$15:$M$15</f>
             </numRef>
           </val>
         </ser>
@@ -6350,7 +6350,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$1:$N$1</f>
+              <f>'I 5x 8 bits S3'!$B$1:$M$1</f>
             </numRef>
           </val>
         </ser>
@@ -6377,7 +6377,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$2:$N$2</f>
+              <f>'I 5x 8 bits S3'!$B$2:$M$2</f>
             </numRef>
           </val>
         </ser>
@@ -6404,7 +6404,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$3:$N$3</f>
+              <f>'I 5x 8 bits S3'!$B$3:$M$3</f>
             </numRef>
           </val>
         </ser>
@@ -6431,7 +6431,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$4:$N$4</f>
+              <f>'I 5x 8 bits S3'!$B$4:$M$4</f>
             </numRef>
           </val>
         </ser>
@@ -6458,7 +6458,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$5:$N$5</f>
+              <f>'I 5x 8 bits S3'!$B$5:$M$5</f>
             </numRef>
           </val>
         </ser>
@@ -6485,7 +6485,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$6:$N$6</f>
+              <f>'I 5x 8 bits S3'!$B$6:$M$6</f>
             </numRef>
           </val>
         </ser>
@@ -6512,7 +6512,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$7:$N$7</f>
+              <f>'I 5x 8 bits S3'!$B$7:$M$7</f>
             </numRef>
           </val>
         </ser>
@@ -6539,7 +6539,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$8:$N$8</f>
+              <f>'I 5x 8 bits S3'!$B$8:$M$8</f>
             </numRef>
           </val>
         </ser>
@@ -6566,7 +6566,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$9:$N$9</f>
+              <f>'I 5x 8 bits S3'!$B$9:$M$9</f>
             </numRef>
           </val>
         </ser>
@@ -6593,7 +6593,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$10:$N$10</f>
+              <f>'I 5x 8 bits S3'!$B$10:$M$10</f>
             </numRef>
           </val>
         </ser>
@@ -6620,7 +6620,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$11:$N$11</f>
+              <f>'I 5x 8 bits S3'!$B$11:$M$11</f>
             </numRef>
           </val>
         </ser>
@@ -6647,7 +6647,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$12:$N$12</f>
+              <f>'I 5x 8 bits S3'!$B$12:$M$12</f>
             </numRef>
           </val>
         </ser>
@@ -6674,7 +6674,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$13:$N$13</f>
+              <f>'I 5x 8 bits S3'!$B$13:$M$13</f>
             </numRef>
           </val>
         </ser>
@@ -6701,7 +6701,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$14:$N$14</f>
+              <f>'I 5x 8 bits S3'!$B$14:$M$14</f>
             </numRef>
           </val>
         </ser>
@@ -6728,7 +6728,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S3'!$B$15:$N$15</f>
+              <f>'I 5x 8 bits S3'!$B$15:$M$15</f>
             </numRef>
           </val>
         </ser>
@@ -6796,7 +6796,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$1:$R$1</f>
+              <f>'I 5x 8 bits S4'!$B$1:$Q$1</f>
             </numRef>
           </val>
         </ser>
@@ -6823,7 +6823,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$2:$R$2</f>
+              <f>'I 5x 8 bits S4'!$B$2:$Q$2</f>
             </numRef>
           </val>
         </ser>
@@ -6850,7 +6850,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$3:$R$3</f>
+              <f>'I 5x 8 bits S4'!$B$3:$Q$3</f>
             </numRef>
           </val>
         </ser>
@@ -6877,7 +6877,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$4:$R$4</f>
+              <f>'I 5x 8 bits S4'!$B$4:$Q$4</f>
             </numRef>
           </val>
         </ser>
@@ -6904,7 +6904,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$5:$R$5</f>
+              <f>'I 5x 8 bits S4'!$B$5:$Q$5</f>
             </numRef>
           </val>
         </ser>
@@ -6931,7 +6931,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$6:$R$6</f>
+              <f>'I 5x 8 bits S4'!$B$6:$Q$6</f>
             </numRef>
           </val>
         </ser>
@@ -6958,7 +6958,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$7:$R$7</f>
+              <f>'I 5x 8 bits S4'!$B$7:$Q$7</f>
             </numRef>
           </val>
         </ser>
@@ -6985,7 +6985,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$8:$R$8</f>
+              <f>'I 5x 8 bits S4'!$B$8:$Q$8</f>
             </numRef>
           </val>
         </ser>
@@ -7012,7 +7012,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$9:$R$9</f>
+              <f>'I 5x 8 bits S4'!$B$9:$Q$9</f>
             </numRef>
           </val>
         </ser>
@@ -7039,7 +7039,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$10:$R$10</f>
+              <f>'I 5x 8 bits S4'!$B$10:$Q$10</f>
             </numRef>
           </val>
         </ser>
@@ -7066,7 +7066,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$11:$R$11</f>
+              <f>'I 5x 8 bits S4'!$B$11:$Q$11</f>
             </numRef>
           </val>
         </ser>
@@ -7093,7 +7093,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$12:$R$12</f>
+              <f>'I 5x 8 bits S4'!$B$12:$Q$12</f>
             </numRef>
           </val>
         </ser>
@@ -7120,7 +7120,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$13:$R$13</f>
+              <f>'I 5x 8 bits S4'!$B$13:$Q$13</f>
             </numRef>
           </val>
         </ser>
@@ -7147,7 +7147,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$14:$R$14</f>
+              <f>'I 5x 8 bits S4'!$B$14:$Q$14</f>
             </numRef>
           </val>
         </ser>
@@ -7174,7 +7174,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S4'!$B$15:$R$15</f>
+              <f>'I 5x 8 bits S4'!$B$15:$Q$15</f>
             </numRef>
           </val>
         </ser>
@@ -7242,7 +7242,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$1:$Q$1</f>
+              <f>'I 5x 8 bits S5'!$B$1:$P$1</f>
             </numRef>
           </val>
         </ser>
@@ -7269,7 +7269,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$2:$Q$2</f>
+              <f>'I 5x 8 bits S5'!$B$2:$P$2</f>
             </numRef>
           </val>
         </ser>
@@ -7296,7 +7296,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$3:$Q$3</f>
+              <f>'I 5x 8 bits S5'!$B$3:$P$3</f>
             </numRef>
           </val>
         </ser>
@@ -7323,7 +7323,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$4:$Q$4</f>
+              <f>'I 5x 8 bits S5'!$B$4:$P$4</f>
             </numRef>
           </val>
         </ser>
@@ -7350,7 +7350,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$5:$Q$5</f>
+              <f>'I 5x 8 bits S5'!$B$5:$P$5</f>
             </numRef>
           </val>
         </ser>
@@ -7377,7 +7377,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$6:$Q$6</f>
+              <f>'I 5x 8 bits S5'!$B$6:$P$6</f>
             </numRef>
           </val>
         </ser>
@@ -7404,7 +7404,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$7:$Q$7</f>
+              <f>'I 5x 8 bits S5'!$B$7:$P$7</f>
             </numRef>
           </val>
         </ser>
@@ -7431,7 +7431,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$8:$Q$8</f>
+              <f>'I 5x 8 bits S5'!$B$8:$P$8</f>
             </numRef>
           </val>
         </ser>
@@ -7458,7 +7458,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$9:$Q$9</f>
+              <f>'I 5x 8 bits S5'!$B$9:$P$9</f>
             </numRef>
           </val>
         </ser>
@@ -7485,7 +7485,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$10:$Q$10</f>
+              <f>'I 5x 8 bits S5'!$B$10:$P$10</f>
             </numRef>
           </val>
         </ser>
@@ -7512,7 +7512,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$11:$Q$11</f>
+              <f>'I 5x 8 bits S5'!$B$11:$P$11</f>
             </numRef>
           </val>
         </ser>
@@ -7539,7 +7539,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$12:$Q$12</f>
+              <f>'I 5x 8 bits S5'!$B$12:$P$12</f>
             </numRef>
           </val>
         </ser>
@@ -7566,7 +7566,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$13:$Q$13</f>
+              <f>'I 5x 8 bits S5'!$B$13:$P$13</f>
             </numRef>
           </val>
         </ser>
@@ -7593,7 +7593,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$14:$Q$14</f>
+              <f>'I 5x 8 bits S5'!$B$14:$P$14</f>
             </numRef>
           </val>
         </ser>
@@ -7620,7 +7620,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S5'!$B$15:$Q$15</f>
+              <f>'I 5x 8 bits S5'!$B$15:$P$15</f>
             </numRef>
           </val>
         </ser>
@@ -7688,7 +7688,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$1:$P$1</f>
+              <f>'I 5x 8 bits S6'!$B$1:$O$1</f>
             </numRef>
           </val>
         </ser>
@@ -7715,7 +7715,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$2:$P$2</f>
+              <f>'I 5x 8 bits S6'!$B$2:$O$2</f>
             </numRef>
           </val>
         </ser>
@@ -7742,7 +7742,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$3:$P$3</f>
+              <f>'I 5x 8 bits S6'!$B$3:$O$3</f>
             </numRef>
           </val>
         </ser>
@@ -7769,7 +7769,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$4:$P$4</f>
+              <f>'I 5x 8 bits S6'!$B$4:$O$4</f>
             </numRef>
           </val>
         </ser>
@@ -7796,7 +7796,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$5:$P$5</f>
+              <f>'I 5x 8 bits S6'!$B$5:$O$5</f>
             </numRef>
           </val>
         </ser>
@@ -7823,7 +7823,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$6:$P$6</f>
+              <f>'I 5x 8 bits S6'!$B$6:$O$6</f>
             </numRef>
           </val>
         </ser>
@@ -7850,7 +7850,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$7:$P$7</f>
+              <f>'I 5x 8 bits S6'!$B$7:$O$7</f>
             </numRef>
           </val>
         </ser>
@@ -7877,7 +7877,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$8:$P$8</f>
+              <f>'I 5x 8 bits S6'!$B$8:$O$8</f>
             </numRef>
           </val>
         </ser>
@@ -7904,7 +7904,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$9:$P$9</f>
+              <f>'I 5x 8 bits S6'!$B$9:$O$9</f>
             </numRef>
           </val>
         </ser>
@@ -7931,7 +7931,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$10:$P$10</f>
+              <f>'I 5x 8 bits S6'!$B$10:$O$10</f>
             </numRef>
           </val>
         </ser>
@@ -7958,7 +7958,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$11:$P$11</f>
+              <f>'I 5x 8 bits S6'!$B$11:$O$11</f>
             </numRef>
           </val>
         </ser>
@@ -7985,7 +7985,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$12:$P$12</f>
+              <f>'I 5x 8 bits S6'!$B$12:$O$12</f>
             </numRef>
           </val>
         </ser>
@@ -8012,7 +8012,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$13:$P$13</f>
+              <f>'I 5x 8 bits S6'!$B$13:$O$13</f>
             </numRef>
           </val>
         </ser>
@@ -8039,7 +8039,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$14:$P$14</f>
+              <f>'I 5x 8 bits S6'!$B$14:$O$14</f>
             </numRef>
           </val>
         </ser>
@@ -8066,7 +8066,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S6'!$B$15:$P$15</f>
+              <f>'I 5x 8 bits S6'!$B$15:$O$15</f>
             </numRef>
           </val>
         </ser>
@@ -8134,7 +8134,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$1:$O$1</f>
+              <f>'I 5x 8 bits S7'!$B$1:$N$1</f>
             </numRef>
           </val>
         </ser>
@@ -8161,7 +8161,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$2:$O$2</f>
+              <f>'I 5x 8 bits S7'!$B$2:$N$2</f>
             </numRef>
           </val>
         </ser>
@@ -8188,7 +8188,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$3:$O$3</f>
+              <f>'I 5x 8 bits S7'!$B$3:$N$3</f>
             </numRef>
           </val>
         </ser>
@@ -8215,7 +8215,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$4:$O$4</f>
+              <f>'I 5x 8 bits S7'!$B$4:$N$4</f>
             </numRef>
           </val>
         </ser>
@@ -8242,7 +8242,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$5:$O$5</f>
+              <f>'I 5x 8 bits S7'!$B$5:$N$5</f>
             </numRef>
           </val>
         </ser>
@@ -8269,7 +8269,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$6:$O$6</f>
+              <f>'I 5x 8 bits S7'!$B$6:$N$6</f>
             </numRef>
           </val>
         </ser>
@@ -8296,7 +8296,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$7:$O$7</f>
+              <f>'I 5x 8 bits S7'!$B$7:$N$7</f>
             </numRef>
           </val>
         </ser>
@@ -8323,7 +8323,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$8:$O$8</f>
+              <f>'I 5x 8 bits S7'!$B$8:$N$8</f>
             </numRef>
           </val>
         </ser>
@@ -8350,7 +8350,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$9:$O$9</f>
+              <f>'I 5x 8 bits S7'!$B$9:$N$9</f>
             </numRef>
           </val>
         </ser>
@@ -8377,7 +8377,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$10:$O$10</f>
+              <f>'I 5x 8 bits S7'!$B$10:$N$10</f>
             </numRef>
           </val>
         </ser>
@@ -8404,7 +8404,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$11:$O$11</f>
+              <f>'I 5x 8 bits S7'!$B$11:$N$11</f>
             </numRef>
           </val>
         </ser>
@@ -8431,7 +8431,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$12:$O$12</f>
+              <f>'I 5x 8 bits S7'!$B$12:$N$12</f>
             </numRef>
           </val>
         </ser>
@@ -8458,7 +8458,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$13:$O$13</f>
+              <f>'I 5x 8 bits S7'!$B$13:$N$13</f>
             </numRef>
           </val>
         </ser>
@@ -8485,7 +8485,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$14:$O$14</f>
+              <f>'I 5x 8 bits S7'!$B$14:$N$14</f>
             </numRef>
           </val>
         </ser>
@@ -8512,7 +8512,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S7'!$B$15:$O$15</f>
+              <f>'I 5x 8 bits S7'!$B$15:$N$15</f>
             </numRef>
           </val>
         </ser>
@@ -8580,7 +8580,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$1:$P$1</f>
+              <f>'I 5x 8 bits S8'!$B$1:$O$1</f>
             </numRef>
           </val>
         </ser>
@@ -8607,7 +8607,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$2:$P$2</f>
+              <f>'I 5x 8 bits S8'!$B$2:$O$2</f>
             </numRef>
           </val>
         </ser>
@@ -8634,7 +8634,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$3:$P$3</f>
+              <f>'I 5x 8 bits S8'!$B$3:$O$3</f>
             </numRef>
           </val>
         </ser>
@@ -8661,7 +8661,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$4:$P$4</f>
+              <f>'I 5x 8 bits S8'!$B$4:$O$4</f>
             </numRef>
           </val>
         </ser>
@@ -8688,7 +8688,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$5:$P$5</f>
+              <f>'I 5x 8 bits S8'!$B$5:$O$5</f>
             </numRef>
           </val>
         </ser>
@@ -8715,7 +8715,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$6:$P$6</f>
+              <f>'I 5x 8 bits S8'!$B$6:$O$6</f>
             </numRef>
           </val>
         </ser>
@@ -8742,7 +8742,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$7:$P$7</f>
+              <f>'I 5x 8 bits S8'!$B$7:$O$7</f>
             </numRef>
           </val>
         </ser>
@@ -8769,7 +8769,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$8:$P$8</f>
+              <f>'I 5x 8 bits S8'!$B$8:$O$8</f>
             </numRef>
           </val>
         </ser>
@@ -8796,7 +8796,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$9:$P$9</f>
+              <f>'I 5x 8 bits S8'!$B$9:$O$9</f>
             </numRef>
           </val>
         </ser>
@@ -8823,7 +8823,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$10:$P$10</f>
+              <f>'I 5x 8 bits S8'!$B$10:$O$10</f>
             </numRef>
           </val>
         </ser>
@@ -8850,7 +8850,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$11:$P$11</f>
+              <f>'I 5x 8 bits S8'!$B$11:$O$11</f>
             </numRef>
           </val>
         </ser>
@@ -8877,7 +8877,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$12:$P$12</f>
+              <f>'I 5x 8 bits S8'!$B$12:$O$12</f>
             </numRef>
           </val>
         </ser>
@@ -8904,7 +8904,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$13:$P$13</f>
+              <f>'I 5x 8 bits S8'!$B$13:$O$13</f>
             </numRef>
           </val>
         </ser>
@@ -8931,7 +8931,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$14:$P$14</f>
+              <f>'I 5x 8 bits S8'!$B$14:$O$14</f>
             </numRef>
           </val>
         </ser>
@@ -8958,7 +8958,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'I 5x 8 bits S8'!$B$15:$P$15</f>
+              <f>'I 5x 8 bits S8'!$B$15:$O$15</f>
             </numRef>
           </val>
         </ser>
